--- a/api/datasets/medical_symptoms_small.xlsx
+++ b/api/datasets/medical_symptoms_small.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laansdole/Projects/RAG-Anything/api/datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{A45664DC-1B47-3348-8840-35D2230BC69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -355,8 +362,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,13 +426,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -463,7 +478,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -497,6 +512,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -531,9 +547,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -706,14 +723,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -765,7 +794,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -791,7 +820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -817,7 +846,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -843,7 +872,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -869,7 +898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -895,7 +924,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -921,7 +950,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -947,7 +976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -973,7 +1002,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -999,7 +1028,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1051,7 +1080,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1103,7 +1132,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1129,7 +1158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1155,7 +1184,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1210,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1207,7 +1236,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1233,7 +1262,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1285,7 +1314,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1311,7 +1340,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1337,7 +1366,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1363,7 +1392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1392,4 +1421,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ddaa77bc-0157-46a4-82a6-8fc765694bc9}" enabled="1" method="Standard" siteId="{d1323671-cdbe-4417-b4d4-bdb24b51316b}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>